--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Fzd4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2740863333333334</v>
+        <v>0.6558959999999999</v>
       </c>
       <c r="H2">
-        <v>0.8222590000000001</v>
+        <v>1.967688</v>
       </c>
       <c r="I2">
-        <v>0.05829365131129328</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="J2">
-        <v>0.05829365131129328</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.38723566666667</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N2">
-        <v>94.16170700000001</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O2">
-        <v>0.5539598599114094</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P2">
-        <v>0.5539598599114095</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q2">
-        <v>8.60281233734589</v>
+        <v>19.51859939591199</v>
       </c>
       <c r="R2">
-        <v>77.42531103611302</v>
+        <v>175.667394563208</v>
       </c>
       <c r="S2">
-        <v>0.03229234291412857</v>
+        <v>0.06450602221528628</v>
       </c>
       <c r="T2">
-        <v>0.03229234291412858</v>
+        <v>0.06450602221528627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2740863333333334</v>
+        <v>0.6558959999999999</v>
       </c>
       <c r="H3">
-        <v>0.8222590000000001</v>
+        <v>1.967688</v>
       </c>
       <c r="I3">
-        <v>0.05829365131129328</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="J3">
-        <v>0.05829365131129328</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +626,22 @@
         <v>52.665751</v>
       </c>
       <c r="O3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q3">
-        <v>4.811654194612112</v>
+        <v>11.514418472632</v>
       </c>
       <c r="R3">
-        <v>43.30488775150901</v>
+        <v>103.629766253688</v>
       </c>
       <c r="S3">
-        <v>0.01806148746987042</v>
+        <v>0.03805341350195778</v>
       </c>
       <c r="T3">
-        <v>0.01806148746987042</v>
+        <v>0.03805341350195777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2740863333333334</v>
+        <v>0.6558959999999999</v>
       </c>
       <c r="H4">
-        <v>0.8222590000000001</v>
+        <v>1.967688</v>
       </c>
       <c r="I4">
-        <v>0.05829365131129328</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="J4">
-        <v>0.05829365131129328</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.717279333333334</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N4">
-        <v>23.151838</v>
+        <v>0.426419</v>
       </c>
       <c r="O4">
-        <v>0.1362038703819552</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="P4">
-        <v>0.1362038703819552</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="Q4">
-        <v>2.115200795782445</v>
+        <v>0.09322883880799998</v>
       </c>
       <c r="R4">
-        <v>19.036807162042</v>
+        <v>0.8390595492719999</v>
       </c>
       <c r="S4">
-        <v>0.007939820927294283</v>
+        <v>0.0003081072276381539</v>
       </c>
       <c r="T4">
-        <v>0.007939820927294283</v>
+        <v>0.0003081072276381539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.335609</v>
+        <v>0.6558959999999999</v>
       </c>
       <c r="H5">
-        <v>10.006827</v>
+        <v>1.967688</v>
       </c>
       <c r="I5">
-        <v>0.7094291261882629</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="J5">
-        <v>0.7094291261882629</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.38723566666667</v>
+        <v>12.42872866666667</v>
       </c>
       <c r="N5">
-        <v>94.16170700000001</v>
+        <v>37.286186</v>
       </c>
       <c r="O5">
-        <v>0.5539598599114094</v>
+        <v>0.2066765699758167</v>
       </c>
       <c r="P5">
-        <v>0.5539598599114095</v>
+        <v>0.2066765699758166</v>
       </c>
       <c r="Q5">
-        <v>104.6955457748543</v>
+        <v>8.151953417551999</v>
       </c>
       <c r="R5">
-        <v>942.259911973689</v>
+        <v>73.367580757968</v>
       </c>
       <c r="S5">
-        <v>0.3929952593603237</v>
+        <v>0.02694097448204829</v>
       </c>
       <c r="T5">
-        <v>0.3929952593603238</v>
+        <v>0.02694097448204828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.335609</v>
+        <v>0.6558959999999999</v>
       </c>
       <c r="H6">
-        <v>10.006827</v>
+        <v>1.967688</v>
       </c>
       <c r="I6">
-        <v>0.7094291261882629</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="J6">
-        <v>0.7094291261882629</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.55525033333333</v>
+        <v>0.251329</v>
       </c>
       <c r="N6">
-        <v>52.665751</v>
+        <v>0.753987</v>
       </c>
       <c r="O6">
-        <v>0.3098362697066353</v>
+        <v>0.004179334592343558</v>
       </c>
       <c r="P6">
-        <v>0.3098362697066353</v>
+        <v>0.004179334592343557</v>
       </c>
       <c r="Q6">
-        <v>58.55745100911967</v>
+        <v>0.164845685784</v>
       </c>
       <c r="R6">
-        <v>527.017059082077</v>
+        <v>1.483611172056</v>
       </c>
       <c r="S6">
-        <v>0.2198068740794092</v>
+        <v>0.0005447900873207075</v>
       </c>
       <c r="T6">
-        <v>0.2198068740794092</v>
+        <v>0.0005447900873207074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +856,10 @@
         <v>10.006827</v>
       </c>
       <c r="I7">
-        <v>0.7094291261882629</v>
+        <v>0.6629216609406124</v>
       </c>
       <c r="J7">
-        <v>0.7094291261882629</v>
+        <v>0.6629216609406123</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.717279333333334</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N7">
-        <v>23.151838</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O7">
-        <v>0.1362038703819552</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P7">
-        <v>0.1362038703819552</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q7">
-        <v>25.74182639978067</v>
+        <v>99.26332194798965</v>
       </c>
       <c r="R7">
-        <v>231.676437598026</v>
+        <v>893.3698975319069</v>
       </c>
       <c r="S7">
-        <v>0.09662699274852991</v>
+        <v>0.3280502827513949</v>
       </c>
       <c r="T7">
-        <v>0.09662699274852991</v>
+        <v>0.3280502827513947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.092126</v>
+        <v>3.335609</v>
       </c>
       <c r="H8">
-        <v>3.276378</v>
+        <v>10.006827</v>
       </c>
       <c r="I8">
-        <v>0.2322772225004438</v>
+        <v>0.6629216609406124</v>
       </c>
       <c r="J8">
-        <v>0.2322772225004438</v>
+        <v>0.6629216609406123</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.38723566666667</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N8">
-        <v>94.16170700000001</v>
+        <v>52.665751</v>
       </c>
       <c r="O8">
-        <v>0.5539598599114094</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P8">
-        <v>0.5539598599114095</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q8">
-        <v>34.278816139694</v>
+        <v>58.55745100911967</v>
       </c>
       <c r="R8">
-        <v>308.509345257246</v>
+        <v>527.017059082077</v>
       </c>
       <c r="S8">
-        <v>0.1286722576369571</v>
+        <v>0.1935235289708306</v>
       </c>
       <c r="T8">
-        <v>0.1286722576369571</v>
+        <v>0.1935235289708305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.092126</v>
+        <v>3.335609</v>
       </c>
       <c r="H9">
-        <v>3.276378</v>
+        <v>10.006827</v>
       </c>
       <c r="I9">
-        <v>0.2322772225004438</v>
+        <v>0.6629216609406124</v>
       </c>
       <c r="J9">
-        <v>0.2322772225004438</v>
+        <v>0.6629216609406123</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.55525033333333</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N9">
-        <v>52.665751</v>
+        <v>0.426419</v>
       </c>
       <c r="O9">
-        <v>0.3098362697066353</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="P9">
-        <v>0.3098362697066353</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="Q9">
-        <v>19.172545325542</v>
+        <v>0.4741223513903333</v>
       </c>
       <c r="R9">
-        <v>172.552907929878</v>
+        <v>4.267101162513</v>
       </c>
       <c r="S9">
-        <v>0.07196790815735564</v>
+        <v>0.001566902742927042</v>
       </c>
       <c r="T9">
-        <v>0.07196790815735564</v>
+        <v>0.001566902742927041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1030,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.092126</v>
+        <v>3.335609</v>
       </c>
       <c r="H10">
-        <v>3.276378</v>
+        <v>10.006827</v>
       </c>
       <c r="I10">
-        <v>0.2322772225004438</v>
+        <v>0.6629216609406124</v>
       </c>
       <c r="J10">
-        <v>0.2322772225004438</v>
+        <v>0.6629216609406123</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1054,400 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.717279333333334</v>
+        <v>12.42872866666667</v>
       </c>
       <c r="N10">
-        <v>23.151838</v>
+        <v>37.286186</v>
       </c>
       <c r="O10">
-        <v>0.1362038703819552</v>
+        <v>0.2066765699758167</v>
       </c>
       <c r="P10">
-        <v>0.1362038703819552</v>
+        <v>0.2066765699758166</v>
       </c>
       <c r="Q10">
-        <v>8.428241409196</v>
+        <v>41.45737919909133</v>
       </c>
       <c r="R10">
-        <v>75.854172682764</v>
+        <v>373.116412791822</v>
       </c>
       <c r="S10">
-        <v>0.03163705670613102</v>
+        <v>0.1370103750458771</v>
       </c>
       <c r="T10">
-        <v>0.03163705670613102</v>
+        <v>0.137010375045877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.335609</v>
+      </c>
+      <c r="H11">
+        <v>10.006827</v>
+      </c>
+      <c r="I11">
+        <v>0.6629216609406124</v>
+      </c>
+      <c r="J11">
+        <v>0.6629216609406123</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.251329</v>
+      </c>
+      <c r="N11">
+        <v>0.753987</v>
+      </c>
+      <c r="O11">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P11">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q11">
+        <v>0.8383352743609999</v>
+      </c>
+      <c r="R11">
+        <v>7.545017469248999</v>
+      </c>
+      <c r="S11">
+        <v>0.002770571429582949</v>
+      </c>
+      <c r="T11">
+        <v>0.002770571429582948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.040174</v>
+      </c>
+      <c r="H12">
+        <v>3.120522</v>
+      </c>
+      <c r="I12">
+        <v>0.2067250315451364</v>
+      </c>
+      <c r="J12">
+        <v>0.2067250315451363</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>29.75868033333333</v>
+      </c>
+      <c r="N12">
+        <v>89.27604099999999</v>
+      </c>
+      <c r="O12">
+        <v>0.4948552779010537</v>
+      </c>
+      <c r="P12">
+        <v>0.4948552779010535</v>
+      </c>
+      <c r="Q12">
+        <v>30.95420555704467</v>
+      </c>
+      <c r="R12">
+        <v>278.587850013402</v>
+      </c>
+      <c r="S12">
+        <v>0.1022989729343726</v>
+      </c>
+      <c r="T12">
+        <v>0.1022989729343725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.040174</v>
+      </c>
+      <c r="H13">
+        <v>3.120522</v>
+      </c>
+      <c r="I13">
+        <v>0.2067250315451364</v>
+      </c>
+      <c r="J13">
+        <v>0.2067250315451363</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.55525033333333</v>
+      </c>
+      <c r="N13">
+        <v>52.665751</v>
+      </c>
+      <c r="O13">
+        <v>0.2919251856942525</v>
+      </c>
+      <c r="P13">
+        <v>0.2919251856942524</v>
+      </c>
+      <c r="Q13">
+        <v>18.26051496022467</v>
+      </c>
+      <c r="R13">
+        <v>164.344634642022</v>
+      </c>
+      <c r="S13">
+        <v>0.06034824322146413</v>
+      </c>
+      <c r="T13">
+        <v>0.06034824322146411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.040174</v>
+      </c>
+      <c r="H14">
+        <v>3.120522</v>
+      </c>
+      <c r="I14">
+        <v>0.2067250315451364</v>
+      </c>
+      <c r="J14">
+        <v>0.2067250315451363</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.426419</v>
+      </c>
+      <c r="O14">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="P14">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="Q14">
+        <v>0.1478499856353334</v>
+      </c>
+      <c r="R14">
+        <v>1.330649870718</v>
+      </c>
+      <c r="S14">
+        <v>0.0004886218659685213</v>
+      </c>
+      <c r="T14">
+        <v>0.000488621865968521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.040174</v>
+      </c>
+      <c r="H15">
+        <v>3.120522</v>
+      </c>
+      <c r="I15">
+        <v>0.2067250315451364</v>
+      </c>
+      <c r="J15">
+        <v>0.2067250315451363</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.42872866666667</v>
+      </c>
+      <c r="N15">
+        <v>37.286186</v>
+      </c>
+      <c r="O15">
+        <v>0.2066765699758167</v>
+      </c>
+      <c r="P15">
+        <v>0.2066765699758166</v>
+      </c>
+      <c r="Q15">
+        <v>12.92804041212134</v>
+      </c>
+      <c r="R15">
+        <v>116.352363709092</v>
+      </c>
+      <c r="S15">
+        <v>0.04272522044789129</v>
+      </c>
+      <c r="T15">
+        <v>0.04272522044789127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.040174</v>
+      </c>
+      <c r="H16">
+        <v>3.120522</v>
+      </c>
+      <c r="I16">
+        <v>0.2067250315451364</v>
+      </c>
+      <c r="J16">
+        <v>0.2067250315451363</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.251329</v>
+      </c>
+      <c r="N16">
+        <v>0.753987</v>
+      </c>
+      <c r="O16">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P16">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q16">
+        <v>0.261425891246</v>
+      </c>
+      <c r="R16">
+        <v>2.352833021214</v>
+      </c>
+      <c r="S16">
+        <v>0.0008639730754399017</v>
+      </c>
+      <c r="T16">
+        <v>0.0008639730754399013</v>
       </c>
     </row>
   </sheetData>
